--- a/Test unitaire et fonctionnel.xlsx
+++ b/Test unitaire et fonctionnel.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08edb62fc4819e57/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Openclassrooms\Projets\Projet 5 Construisez un site e-commerce\Projet 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2DA0DA37-7AC3-4F0A-9EE8-A63B839AF33A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7CA78654-8873-476E-BBF0-5163B92F8D76}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3076031E-448F-478C-AD88-CC4C1C6144E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Index</t>
   </si>
@@ -45,18 +45,12 @@
     <t>Panier</t>
   </si>
   <si>
-    <t>Affichage du produit</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
     <t>Prix</t>
   </si>
   <si>
-    <t>Courrier</t>
-  </si>
-  <si>
     <t>Test boutons</t>
   </si>
   <si>
@@ -129,17 +123,104 @@
     <t>Test Unitaire et Fonctionnel</t>
   </si>
   <si>
-    <t>Détails doit afficher le produit séléctionné sur une autre page avec l'image  le nom la description le choix des couleurs et le prix</t>
-  </si>
-  <si>
-    <t>Fonctionnement des liens</t>
+    <t>Détails  : doit afficher le produit séléctionné sur la page produit.HTML avec l'image  le nom la description le choix des couleurs et le prix</t>
+  </si>
+  <si>
+    <t>Mentions légales  : doit ouvrir la page mentions-légales.HTML</t>
+  </si>
+  <si>
+    <t>Validez la commande : doit ouvrir la page confirmation.HTML avec le nom et le prénom du client, le numéro ORDER ainsi que le prix total du panier</t>
+  </si>
+  <si>
+    <t>Un autre teddy  : doit ouvrir la page produit.HTML sur la partie Mais Aussi…pour le choix des 5 ours</t>
+  </si>
+  <si>
+    <t>Effacer : efface le formulaire</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Verifications</t>
+  </si>
+  <si>
+    <t>Champs</t>
+  </si>
+  <si>
+    <t>Ouvre Panier.html</t>
+  </si>
+  <si>
+    <t>Ouvre index.html</t>
+  </si>
+  <si>
+    <t>Ouvre Facebook</t>
+  </si>
+  <si>
+    <t>Ouvre Instagram</t>
+  </si>
+  <si>
+    <t>Ouvre Twitter</t>
+  </si>
+  <si>
+    <t>Ouvre Boite mail</t>
+  </si>
+  <si>
+    <t>Fonction Boutons</t>
+  </si>
+  <si>
+    <t>Icone Panier</t>
+  </si>
+  <si>
+    <t>Icone Index</t>
+  </si>
+  <si>
+    <t>Icone Facebook</t>
+  </si>
+  <si>
+    <t>Icone Instagram</t>
+  </si>
+  <si>
+    <t>Icone Twitter</t>
+  </si>
+  <si>
+    <t>Icone Courrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter au panier  : doit envoyer le produit séléctionné dans le panier </t>
+  </si>
+  <si>
+    <t>Panier : doit afficher un nombre, si le panier est vide il sera noté zéro dans le panier</t>
+  </si>
+  <si>
+    <t>Panier : si le panier est vide, la page panier n'est plus accéssible.</t>
+  </si>
+  <si>
+    <t>Panier : quand la page confirmation est affichée, le panier est delete.</t>
+  </si>
+  <si>
+    <t>Formulaire : si les réponses données sont correctes, la bordure sera verte</t>
+  </si>
+  <si>
+    <t>Effacer</t>
+  </si>
+  <si>
+    <t>Infos supplémentaires</t>
+  </si>
+  <si>
+    <t>Icones : Un effet CSS doit faire disparaitre l'icone au survol de la souris et la remplacer par un mot la désignant.</t>
+  </si>
+  <si>
+    <t>Animation : deux traces déscendent de l'écran à gauche et à droite jusqu’à la moitié de l'écran et remonte.</t>
+  </si>
+  <si>
+    <t>Affichage du produit séléctionné</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +244,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +305,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -450,11 +578,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,32 +662,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,14 +704,62 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,417 +1041,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N31"/>
+  <dimension ref="B2:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5546875" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="2:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="P6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="6"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="34"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
+    </row>
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="19"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="37"/>
+    </row>
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="P12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="21"/>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="34"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="34"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
+    </row>
+    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
+    </row>
+    <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="22"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="J18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="P18" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="H20" s="6"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="24"/>
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
+    </row>
+    <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24"/>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="37"/>
+    </row>
+    <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="24"/>
+      <c r="C23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="24"/>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="J24" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="25"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="34"/>
+    </row>
+    <row r="26" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="34"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="10" t="s">
+      <c r="F27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="34"/>
+    </row>
+    <row r="28" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="14"/>
+      <c r="C28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G28" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="26"/>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="27"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="29"/>
-      <c r="C22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="30"/>
-      <c r="C23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="32"/>
-      <c r="C27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
       <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1253,32 +1639,348 @@
       <c r="G29" s="3"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
+    <row r="30" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="33"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="8"/>
+      <c r="J30" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+    </row>
+    <row r="31" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="14"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="6"/>
+      <c r="J32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
+      <c r="P32" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="15"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="34"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="34"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="34"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="34"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B35" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="34"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="34"/>
+    </row>
+    <row r="36" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="35"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="37"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="37"/>
+    </row>
+    <row r="37" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="31"/>
+      <c r="P38" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="31"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B39" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="34"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="34"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B40" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="34"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="34"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B41" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="32"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="34"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="34"/>
+    </row>
+    <row r="42" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="35"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="37"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="37"/>
+    </row>
+    <row r="43" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J44" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="31"/>
+      <c r="P44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="31"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J45" s="32"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="34"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="34"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J46" s="32"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="34"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="34"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J47" s="32"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="34"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="34"/>
+    </row>
+    <row r="48" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J48" s="35"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="37"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="37"/>
+    </row>
+    <row r="49" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J50" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="31"/>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J51" s="32"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="34"/>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="34"/>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="34"/>
+    </row>
+    <row r="54" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J54" s="35"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="J4:N8"/>
+  <mergeCells count="22">
+    <mergeCell ref="P32:T36"/>
+    <mergeCell ref="P44:T48"/>
+    <mergeCell ref="J44:N48"/>
+    <mergeCell ref="J50:N54"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="J30:T30"/>
+    <mergeCell ref="J32:N36"/>
+    <mergeCell ref="J38:N42"/>
+    <mergeCell ref="P38:T42"/>
+    <mergeCell ref="P12:T16"/>
+    <mergeCell ref="P18:T22"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="J6:N10"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="J12:N16"/>
+    <mergeCell ref="J18:N22"/>
+    <mergeCell ref="J24:N28"/>
+    <mergeCell ref="P6:T10"/>
+    <mergeCell ref="J4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test unitaire et fonctionnel.xlsx
+++ b/Test unitaire et fonctionnel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Openclassrooms\Projets\Projet 5 Construisez un site e-commerce\Projet 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3076031E-448F-478C-AD88-CC4C1C6144E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C55B1C-D84D-40BA-9771-CBEBA4D8C701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>Index</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Affichage du produit séléctionné</t>
+  </si>
+  <si>
+    <t>Formulaire : si les réponses données sont Fausses, la bordure sera rouge</t>
   </si>
 </sst>
 </file>
@@ -665,6 +668,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,6 +728,30 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,81 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,7 +1047,7 @@
   <dimension ref="B2:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,15 +1064,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
@@ -1081,44 +1084,44 @@
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1135,23 +1138,23 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
-      <c r="P6" s="29" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="P6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
@@ -1168,19 +1171,19 @@
         <v>30</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1191,60 +1194,60 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="34"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="10"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="34"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="37"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="28"/>
     </row>
     <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1261,23 +1264,23 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="P12" s="29" t="s">
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="P12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="22"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
@@ -1296,19 +1299,19 @@
       <c r="H13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="10" t="s">
         <v>62</v>
       </c>
@@ -1327,19 +1330,19 @@
       <c r="H14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
@@ -1353,38 +1356,38 @@
       <c r="G15" s="3"/>
       <c r="H15" s="6"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="34"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
     </row>
     <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="10"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="6"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="28"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="22"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="11"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1394,23 +1397,23 @@
     </row>
     <row r="18" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31"/>
-      <c r="P18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="31"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="P18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="22"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -1427,19 +1430,19 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="10" t="s">
         <v>2</v>
       </c>
@@ -1456,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="25"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
@@ -1485,19 +1488,19 @@
         <v>58</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="24"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="10" t="s">
         <v>12</v>
       </c>
@@ -1514,19 +1517,19 @@
         <v>18</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="37"/>
-    </row>
-    <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="24"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="28"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="28"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="39"/>
       <c r="C23" s="10" t="s">
         <v>17</v>
       </c>
@@ -1537,7 +1540,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="24"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
@@ -1550,38 +1553,21 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
-      <c r="J24" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="31"/>
     </row>
     <row r="25" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="25"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="11"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -1600,14 +1586,9 @@
         <v>25</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
-    </row>
-    <row r="28" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="14"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="31"/>
       <c r="C28" s="10" t="s">
         <v>2</v>
       </c>
@@ -1624,14 +1605,9 @@
         <v>0</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="10"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1640,29 +1616,29 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6"/>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
     </row>
     <row r="31" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="14"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1671,316 +1647,315 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="10"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="6"/>
-      <c r="J32" s="29" t="s">
+      <c r="J32" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="31"/>
-      <c r="P32" s="29" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+      <c r="P32" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="31"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="22"/>
     </row>
     <row r="33" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="15"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="11"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="34"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="25"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="34"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="34"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="25"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="34"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34"/>
+      <c r="C35" s="29"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="25"/>
     </row>
     <row r="36" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J36" s="35"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="37"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="37"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="28"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="28"/>
     </row>
     <row r="37" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="29" t="s">
+      <c r="J38" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="31"/>
-      <c r="P38" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="31"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+      <c r="P38" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="22"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="32"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="34"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="34"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="25"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="32"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="34"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="34"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="25"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="25"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="32"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="34"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="34"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="25"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="25"/>
     </row>
     <row r="42" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="37"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="37"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="28"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="28"/>
     </row>
     <row r="43" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="J44" s="29" t="s">
+      <c r="J44" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="31"/>
-      <c r="P44" s="29" t="s">
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="22"/>
+      <c r="P44" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="31"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="22"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="J45" s="32"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="34"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="34"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="25"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="25"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="J46" s="32"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="34"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="34"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="25"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="25"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="J47" s="32"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="34"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="34"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="25"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="25"/>
     </row>
     <row r="48" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J48" s="35"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="37"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="37"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="28"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="28"/>
     </row>
     <row r="49" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J50" s="29" t="s">
+      <c r="J50" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="31"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
     </row>
     <row r="51" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J51" s="32"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="34"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="25"/>
     </row>
     <row r="52" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="34"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="25"/>
     </row>
     <row r="53" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J53" s="32"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="34"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="25"/>
     </row>
     <row r="54" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J54" s="35"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="37"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
+    <mergeCell ref="P6:T10"/>
+    <mergeCell ref="J4:T4"/>
+    <mergeCell ref="J6:N10"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="P12:T16"/>
     <mergeCell ref="P32:T36"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="J12:N16"/>
+    <mergeCell ref="J18:N22"/>
+    <mergeCell ref="P18:T22"/>
     <mergeCell ref="P44:T48"/>
     <mergeCell ref="J44:N48"/>
     <mergeCell ref="J50:N54"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B27:B33"/>
     <mergeCell ref="J30:T30"/>
     <mergeCell ref="J32:N36"/>
     <mergeCell ref="J38:N42"/>
     <mergeCell ref="P38:T42"/>
-    <mergeCell ref="P12:T16"/>
-    <mergeCell ref="P18:T22"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="J6:N10"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="J12:N16"/>
-    <mergeCell ref="J18:N22"/>
-    <mergeCell ref="J24:N28"/>
-    <mergeCell ref="P6:T10"/>
-    <mergeCell ref="J4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
